--- a/コピー経産省補助金20180110.xlsx
+++ b/コピー経産省補助金20180110.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="495">
   <si>
     <t>第一の柱 ： Connected Industries等を通じたSociety 5.0の実現</t>
     <phoneticPr fontId="1"/>
@@ -3269,6 +3269,10 @@
   </si>
   <si>
     <t>課題解決型福祉用具実用化開発支援事業</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>地域創業活性化支援事業</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3342,7 +3346,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3352,6 +3356,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3422,7 +3438,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3471,9 +3487,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -3508,16 +3521,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3525,8 +3535,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3536,6 +3549,12 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3844,8 +3863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E133" sqref="E133"/>
+    <sheetView tabSelected="1" topLeftCell="B31" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3876,19 +3895,19 @@
       <c r="H1" s="7"/>
     </row>
     <row r="2" spans="1:8" ht="40.5" customHeight="1">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="32" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="22" t="s">
         <v>110</v>
       </c>
       <c r="F2" s="5" t="s">
@@ -3900,9 +3919,9 @@
       <c r="H2" s="7"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="30"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="32"/>
       <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
@@ -3915,15 +3934,15 @@
       <c r="G3" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="H3" s="24" t="s">
+      <c r="H3" s="23" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="54">
-      <c r="A4" s="29"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="25" t="s">
+      <c r="A4" s="27"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="24" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="4" t="s">
@@ -3935,14 +3954,14 @@
       <c r="G4" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="H4" s="26" t="s">
+      <c r="H4" s="25" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="81">
-      <c r="A5" s="29"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="30"/>
+      <c r="A5" s="27"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="32"/>
       <c r="D5" s="3" t="s">
         <v>6</v>
       </c>
@@ -3960,12 +3979,12 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="29"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29" t="s">
+      <c r="A6" s="27"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="29" t="s">
+      <c r="D6" s="27" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="4" t="s">
@@ -3982,10 +4001,10 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="29"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
+      <c r="A7" s="27"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
       <c r="E7" s="4" t="s">
         <v>125</v>
       </c>
@@ -4000,10 +4019,10 @@
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="29"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29" t="s">
+      <c r="A8" s="27"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="4" t="s">
@@ -4020,10 +4039,10 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="29"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
+      <c r="A9" s="27"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
       <c r="E9" s="4" t="s">
         <v>130</v>
       </c>
@@ -4038,10 +4057,10 @@
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="29"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
+      <c r="A10" s="27"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
       <c r="E10" s="4" t="s">
         <v>133</v>
       </c>
@@ -4056,10 +4075,10 @@
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="29"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29" t="s">
+      <c r="A11" s="27"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27" t="s">
         <v>10</v>
       </c>
       <c r="E11" s="4" t="s">
@@ -4076,10 +4095,10 @@
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="29"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
+      <c r="A12" s="27"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
       <c r="E12" s="4" t="s">
         <v>138</v>
       </c>
@@ -4094,10 +4113,10 @@
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="29"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
+      <c r="A13" s="27"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
       <c r="E13" s="4" t="s">
         <v>140</v>
       </c>
@@ -4112,10 +4131,10 @@
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="29"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29" t="s">
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="4" t="s">
@@ -4132,10 +4151,10 @@
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="29"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
+      <c r="A15" s="27"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
       <c r="E15" s="4" t="s">
         <v>146</v>
       </c>
@@ -4150,10 +4169,10 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="54">
-      <c r="A16" s="29"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
+      <c r="A16" s="27"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
       <c r="E16" s="14" t="s">
         <v>149</v>
       </c>
@@ -4168,10 +4187,10 @@
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="29"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
+      <c r="A17" s="27"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
       <c r="E17" s="15" t="s">
         <v>151</v>
       </c>
@@ -4186,10 +4205,10 @@
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="29"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29" t="s">
+      <c r="A18" s="27"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27" t="s">
         <v>12</v>
       </c>
       <c r="E18" s="15" t="s">
@@ -4206,11 +4225,11 @@
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="29"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="27" t="s">
+      <c r="A19" s="27"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="26" t="s">
         <v>154</v>
       </c>
       <c r="F19" s="5" t="s">
@@ -4224,10 +4243,10 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="40.5">
-      <c r="A20" s="29"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
+      <c r="A20" s="27"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
       <c r="E20" s="4" t="s">
         <v>157</v>
       </c>
@@ -4242,9 +4261,9 @@
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="29"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29" t="s">
+      <c r="A21" s="27"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27" t="s">
         <v>13</v>
       </c>
       <c r="D21" s="3" t="s">
@@ -4256,10 +4275,10 @@
       <c r="H21" s="7"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="29"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29" t="s">
+      <c r="A22" s="27"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27" t="s">
         <v>15</v>
       </c>
       <c r="E22" s="4" t="s">
@@ -4276,10 +4295,10 @@
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="29"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
+      <c r="A23" s="27"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
       <c r="E23" s="4" t="s">
         <v>161</v>
       </c>
@@ -4294,9 +4313,9 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="27">
-      <c r="A24" s="29"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
+      <c r="A24" s="27"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
       <c r="D24" s="3" t="s">
         <v>16</v>
       </c>
@@ -4314,9 +4333,9 @@
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="29"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29" t="s">
+      <c r="A25" s="27"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27" t="s">
         <v>17</v>
       </c>
       <c r="D25" s="2" t="s">
@@ -4328,9 +4347,9 @@
       <c r="H25" s="7"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="29"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
+      <c r="A26" s="27"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
       <c r="D26" s="3" t="s">
         <v>19</v>
       </c>
@@ -4344,9 +4363,9 @@
       <c r="H26" s="7"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="29"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
+      <c r="A27" s="27"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
       <c r="D27" s="3" t="s">
         <v>20</v>
       </c>
@@ -4356,9 +4375,9 @@
       <c r="H27" s="7"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="29"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
+      <c r="A28" s="27"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
       <c r="D28" s="2" t="s">
         <v>21</v>
       </c>
@@ -4368,9 +4387,9 @@
       <c r="H28" s="7"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="29"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
+      <c r="A29" s="27"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
       <c r="D29" s="3" t="s">
         <v>22</v>
       </c>
@@ -4380,10 +4399,10 @@
       <c r="H29" s="7"/>
     </row>
     <row r="30" spans="1:8" ht="27">
-      <c r="A30" s="29"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="25" t="s">
+      <c r="A30" s="27"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="24" t="s">
         <v>23</v>
       </c>
       <c r="E30" s="4" t="s">
@@ -4396,9 +4415,9 @@
       <c r="H30" s="7"/>
     </row>
     <row r="31" spans="1:8" ht="27">
-      <c r="A31" s="29"/>
-      <c r="B31" s="29"/>
-      <c r="C31" s="29"/>
+      <c r="A31" s="27"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
       <c r="D31" s="3" t="s">
         <v>24</v>
       </c>
@@ -4412,11 +4431,11 @@
       <c r="H31" s="7"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="29"/>
-      <c r="B32" s="29" t="s">
+      <c r="A32" s="27"/>
+      <c r="B32" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="29" t="s">
+      <c r="C32" s="27" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3" t="s">
@@ -4428,9 +4447,9 @@
       <c r="H32" s="7"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="29"/>
-      <c r="B33" s="29"/>
-      <c r="C33" s="29"/>
+      <c r="A33" s="27"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="27"/>
       <c r="D33" s="3" t="s">
         <v>28</v>
       </c>
@@ -4440,9 +4459,9 @@
       <c r="H33" s="7"/>
     </row>
     <row r="34" spans="1:8" ht="27">
-      <c r="A34" s="29"/>
-      <c r="B34" s="29"/>
-      <c r="C34" s="29"/>
+      <c r="A34" s="27"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="27"/>
       <c r="D34" s="3" t="s">
         <v>29</v>
       </c>
@@ -4460,9 +4479,9 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="27">
-      <c r="A35" s="29"/>
-      <c r="B35" s="29"/>
-      <c r="C35" s="29"/>
+      <c r="A35" s="27"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="27"/>
       <c r="D35" s="3" t="s">
         <v>30</v>
       </c>
@@ -4480,9 +4499,9 @@
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="29"/>
-      <c r="B36" s="29"/>
-      <c r="C36" s="29"/>
+      <c r="A36" s="27"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="27"/>
       <c r="D36" s="6" t="s">
         <v>31</v>
       </c>
@@ -4496,9 +4515,9 @@
       <c r="H36" s="7"/>
     </row>
     <row r="37" spans="1:8" ht="27">
-      <c r="A37" s="29"/>
-      <c r="B37" s="29"/>
-      <c r="C37" s="29" t="s">
+      <c r="A37" s="27"/>
+      <c r="B37" s="27"/>
+      <c r="C37" s="27" t="s">
         <v>32</v>
       </c>
       <c r="D37" s="3" t="s">
@@ -4514,9 +4533,9 @@
       <c r="H37" s="7"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="29"/>
-      <c r="B38" s="29"/>
-      <c r="C38" s="29"/>
+      <c r="A38" s="27"/>
+      <c r="B38" s="27"/>
+      <c r="C38" s="27"/>
       <c r="D38" s="3" t="s">
         <v>34</v>
       </c>
@@ -4526,10 +4545,10 @@
       <c r="H38" s="7"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="29"/>
-      <c r="B39" s="29"/>
-      <c r="C39" s="29"/>
-      <c r="D39" s="29" t="s">
+      <c r="A39" s="27"/>
+      <c r="B39" s="27"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="27" t="s">
         <v>35</v>
       </c>
       <c r="E39" s="4" t="s">
@@ -4546,10 +4565,10 @@
       </c>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="29"/>
-      <c r="B40" s="29"/>
-      <c r="C40" s="29"/>
-      <c r="D40" s="29"/>
+      <c r="A40" s="27"/>
+      <c r="B40" s="27"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="27"/>
       <c r="E40" s="4" t="s">
         <v>176</v>
       </c>
@@ -4564,9 +4583,9 @@
       </c>
     </row>
     <row r="41" spans="1:8" ht="27">
-      <c r="A41" s="29"/>
-      <c r="B41" s="29"/>
-      <c r="C41" s="31" t="s">
+      <c r="A41" s="27"/>
+      <c r="B41" s="27"/>
+      <c r="C41" s="33" t="s">
         <v>36</v>
       </c>
       <c r="D41" s="3" t="s">
@@ -4580,9 +4599,9 @@
       </c>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="29"/>
-      <c r="B42" s="29"/>
-      <c r="C42" s="31"/>
+      <c r="A42" s="27"/>
+      <c r="B42" s="27"/>
+      <c r="C42" s="33"/>
       <c r="D42" s="3" t="s">
         <v>38</v>
       </c>
@@ -4598,9 +4617,9 @@
       <c r="H42" s="7"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="29"/>
-      <c r="B43" s="29"/>
-      <c r="C43" s="31"/>
+      <c r="A43" s="27"/>
+      <c r="B43" s="27"/>
+      <c r="C43" s="33"/>
       <c r="D43" s="3" t="s">
         <v>39</v>
       </c>
@@ -4610,11 +4629,11 @@
       <c r="H43" s="7"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="29"/>
-      <c r="B44" s="29" t="s">
+      <c r="A44" s="27"/>
+      <c r="B44" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="C44" s="29" t="s">
+      <c r="C44" s="27" t="s">
         <v>41</v>
       </c>
       <c r="D44" s="3" t="s">
@@ -4626,9 +4645,9 @@
       <c r="H44" s="7"/>
     </row>
     <row r="45" spans="1:8" ht="27">
-      <c r="A45" s="29"/>
-      <c r="B45" s="29"/>
-      <c r="C45" s="29"/>
+      <c r="A45" s="27"/>
+      <c r="B45" s="27"/>
+      <c r="C45" s="27"/>
       <c r="D45" s="3" t="s">
         <v>43</v>
       </c>
@@ -4638,9 +4657,9 @@
       <c r="H45" s="7"/>
     </row>
     <row r="46" spans="1:8" ht="27">
-      <c r="A46" s="29"/>
-      <c r="B46" s="29"/>
-      <c r="C46" s="29"/>
+      <c r="A46" s="27"/>
+      <c r="B46" s="27"/>
+      <c r="C46" s="27"/>
       <c r="D46" s="3" t="s">
         <v>44</v>
       </c>
@@ -4650,14 +4669,14 @@
       <c r="H46" s="7"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="29"/>
-      <c r="B47" s="29"/>
-      <c r="C47" s="29"/>
-      <c r="D47" s="29" t="s">
+      <c r="A47" s="27"/>
+      <c r="B47" s="27"/>
+      <c r="C47" s="27"/>
+      <c r="D47" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="E47" s="4" t="s">
-        <v>177</v>
+      <c r="E47" s="38" t="s">
+        <v>494</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>139</v>
@@ -4670,10 +4689,10 @@
       </c>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="29"/>
-      <c r="B48" s="29"/>
-      <c r="C48" s="29"/>
-      <c r="D48" s="29"/>
+      <c r="A48" s="27"/>
+      <c r="B48" s="27"/>
+      <c r="C48" s="27"/>
+      <c r="D48" s="27"/>
       <c r="E48" s="4" t="s">
         <v>178</v>
       </c>
@@ -4688,10 +4707,10 @@
       </c>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="29"/>
-      <c r="B49" s="29"/>
-      <c r="C49" s="29"/>
-      <c r="D49" s="29"/>
+      <c r="A49" s="27"/>
+      <c r="B49" s="27"/>
+      <c r="C49" s="27"/>
+      <c r="D49" s="27"/>
       <c r="E49" s="4" t="s">
         <v>180</v>
       </c>
@@ -4706,10 +4725,10 @@
       </c>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="29"/>
-      <c r="B50" s="29"/>
-      <c r="C50" s="29"/>
-      <c r="D50" s="29"/>
+      <c r="A50" s="27"/>
+      <c r="B50" s="27"/>
+      <c r="C50" s="27"/>
+      <c r="D50" s="27"/>
       <c r="E50" s="4" t="s">
         <v>181</v>
       </c>
@@ -4724,12 +4743,12 @@
       </c>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="29"/>
-      <c r="B51" s="29"/>
-      <c r="C51" s="29" t="s">
+      <c r="A51" s="27"/>
+      <c r="B51" s="27"/>
+      <c r="C51" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="D51" s="29" t="s">
+      <c r="D51" s="27" t="s">
         <v>47</v>
       </c>
       <c r="E51" s="4" t="s">
@@ -4746,10 +4765,10 @@
       </c>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="29"/>
-      <c r="B52" s="29"/>
-      <c r="C52" s="29"/>
-      <c r="D52" s="29"/>
+      <c r="A52" s="27"/>
+      <c r="B52" s="27"/>
+      <c r="C52" s="27"/>
+      <c r="D52" s="27"/>
       <c r="E52" s="4" t="s">
         <v>184</v>
       </c>
@@ -4758,9 +4777,9 @@
       <c r="H52" s="7"/>
     </row>
     <row r="53" spans="1:8" ht="27">
-      <c r="A53" s="29"/>
-      <c r="B53" s="29"/>
-      <c r="C53" s="29"/>
+      <c r="A53" s="27"/>
+      <c r="B53" s="27"/>
+      <c r="C53" s="27"/>
       <c r="D53" s="3" t="s">
         <v>48</v>
       </c>
@@ -4778,9 +4797,9 @@
       </c>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="29"/>
-      <c r="B54" s="29"/>
-      <c r="C54" s="29"/>
+      <c r="A54" s="27"/>
+      <c r="B54" s="27"/>
+      <c r="C54" s="27"/>
       <c r="D54" s="3" t="s">
         <v>49</v>
       </c>
@@ -4792,9 +4811,9 @@
       <c r="H54" s="7"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="29"/>
-      <c r="B55" s="29"/>
-      <c r="C55" s="29"/>
+      <c r="A55" s="27"/>
+      <c r="B55" s="27"/>
+      <c r="C55" s="27"/>
       <c r="D55" s="3" t="s">
         <v>50</v>
       </c>
@@ -4804,17 +4823,17 @@
       <c r="H55" s="7"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="29" t="s">
+      <c r="A56" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="B56" s="32" t="s">
+      <c r="B56" s="30" t="s">
         <v>52</v>
       </c>
       <c r="C56" s="28" t="s">
         <v>53</v>
       </c>
       <c r="D56" s="28"/>
-      <c r="E56" s="33" t="s">
+      <c r="E56" s="31" t="s">
         <v>187</v>
       </c>
       <c r="F56" s="28" t="s">
@@ -4828,44 +4847,44 @@
       </c>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="29"/>
-      <c r="B57" s="32"/>
+      <c r="A57" s="27"/>
+      <c r="B57" s="30"/>
       <c r="C57" s="28" t="s">
         <v>54</v>
       </c>
       <c r="D57" s="28"/>
-      <c r="E57" s="33"/>
+      <c r="E57" s="31"/>
       <c r="F57" s="28"/>
       <c r="G57" s="28"/>
       <c r="H57" s="28"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="29"/>
-      <c r="B58" s="32"/>
+      <c r="A58" s="27"/>
+      <c r="B58" s="30"/>
       <c r="C58" s="28" t="s">
         <v>55</v>
       </c>
       <c r="D58" s="28"/>
-      <c r="E58" s="33"/>
+      <c r="E58" s="31"/>
       <c r="F58" s="28"/>
       <c r="G58" s="28"/>
       <c r="H58" s="28"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="29"/>
-      <c r="B59" s="32"/>
+      <c r="A59" s="27"/>
+      <c r="B59" s="30"/>
       <c r="C59" s="28" t="s">
         <v>56</v>
       </c>
       <c r="D59" s="28"/>
-      <c r="E59" s="33"/>
+      <c r="E59" s="31"/>
       <c r="F59" s="28"/>
       <c r="G59" s="28"/>
       <c r="H59" s="28"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="29"/>
-      <c r="B60" s="29" t="s">
+      <c r="A60" s="27"/>
+      <c r="B60" s="27" t="s">
         <v>57</v>
       </c>
       <c r="C60" s="28" t="s">
@@ -4886,8 +4905,8 @@
       </c>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="29"/>
-      <c r="B61" s="29"/>
+      <c r="A61" s="27"/>
+      <c r="B61" s="27"/>
       <c r="C61" s="28" t="s">
         <v>59</v>
       </c>
@@ -4906,8 +4925,8 @@
       </c>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="29"/>
-      <c r="B62" s="29"/>
+      <c r="A62" s="27"/>
+      <c r="B62" s="27"/>
       <c r="C62" s="28"/>
       <c r="D62" s="28"/>
       <c r="E62" s="4" t="s">
@@ -4924,8 +4943,8 @@
       </c>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="29"/>
-      <c r="B63" s="29"/>
+      <c r="A63" s="27"/>
+      <c r="B63" s="27"/>
       <c r="C63" s="28"/>
       <c r="D63" s="28"/>
       <c r="E63" s="4" t="s">
@@ -4936,8 +4955,8 @@
       <c r="H63" s="7"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="29"/>
-      <c r="B64" s="29"/>
+      <c r="A64" s="27"/>
+      <c r="B64" s="27"/>
       <c r="C64" s="2" t="s">
         <v>60</v>
       </c>
@@ -4950,8 +4969,8 @@
       <c r="H64" s="7"/>
     </row>
     <row r="65" spans="1:8">
-      <c r="A65" s="29"/>
-      <c r="B65" s="29" t="s">
+      <c r="A65" s="27"/>
+      <c r="B65" s="27" t="s">
         <v>61</v>
       </c>
       <c r="C65" s="28" t="s">
@@ -4970,8 +4989,8 @@
       <c r="H65" s="7"/>
     </row>
     <row r="66" spans="1:8">
-      <c r="A66" s="29"/>
-      <c r="B66" s="29"/>
+      <c r="A66" s="27"/>
+      <c r="B66" s="27"/>
       <c r="C66" s="28"/>
       <c r="D66" s="28"/>
       <c r="E66" s="4" t="s">
@@ -4986,8 +5005,8 @@
       <c r="H66" s="7"/>
     </row>
     <row r="67" spans="1:8">
-      <c r="A67" s="29"/>
-      <c r="B67" s="29"/>
+      <c r="A67" s="27"/>
+      <c r="B67" s="27"/>
       <c r="C67" s="28"/>
       <c r="D67" s="28"/>
       <c r="E67" s="4" t="s">
@@ -5002,8 +5021,8 @@
       <c r="H67" s="7"/>
     </row>
     <row r="68" spans="1:8">
-      <c r="A68" s="29"/>
-      <c r="B68" s="29"/>
+      <c r="A68" s="27"/>
+      <c r="B68" s="27"/>
       <c r="C68" s="2" t="s">
         <v>63</v>
       </c>
@@ -5016,8 +5035,8 @@
       <c r="H68" s="7"/>
     </row>
     <row r="69" spans="1:8">
-      <c r="A69" s="29"/>
-      <c r="B69" s="29"/>
+      <c r="A69" s="27"/>
+      <c r="B69" s="27"/>
       <c r="C69" s="2" t="s">
         <v>64</v>
       </c>
@@ -5034,8 +5053,8 @@
       <c r="H69" s="7"/>
     </row>
     <row r="70" spans="1:8">
-      <c r="A70" s="29"/>
-      <c r="B70" s="29"/>
+      <c r="A70" s="27"/>
+      <c r="B70" s="27"/>
       <c r="C70" s="28" t="s">
         <v>65</v>
       </c>
@@ -5052,8 +5071,8 @@
       <c r="H70" s="7"/>
     </row>
     <row r="71" spans="1:8">
-      <c r="A71" s="29"/>
-      <c r="B71" s="29"/>
+      <c r="A71" s="27"/>
+      <c r="B71" s="27"/>
       <c r="C71" s="28"/>
       <c r="D71" s="28"/>
       <c r="E71" s="4" t="s">
@@ -5068,10 +5087,10 @@
       <c r="H71" s="7"/>
     </row>
     <row r="72" spans="1:8" ht="27" customHeight="1">
-      <c r="A72" s="29" t="s">
+      <c r="A72" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="B72" s="29" t="s">
+      <c r="B72" s="27" t="s">
         <v>67</v>
       </c>
       <c r="C72" s="28" t="s">
@@ -5090,8 +5109,8 @@
       <c r="H72" s="7"/>
     </row>
     <row r="73" spans="1:8">
-      <c r="A73" s="29"/>
-      <c r="B73" s="29"/>
+      <c r="A73" s="27"/>
+      <c r="B73" s="27"/>
       <c r="C73" s="28"/>
       <c r="D73" s="28"/>
       <c r="E73" s="4" t="s">
@@ -5106,8 +5125,8 @@
       <c r="H73" s="7"/>
     </row>
     <row r="74" spans="1:8">
-      <c r="A74" s="29"/>
-      <c r="B74" s="29"/>
+      <c r="A74" s="27"/>
+      <c r="B74" s="27"/>
       <c r="C74" s="2" t="s">
         <v>69</v>
       </c>
@@ -5124,26 +5143,26 @@
       <c r="H74" s="7"/>
     </row>
     <row r="75" spans="1:8" ht="40.5">
-      <c r="A75" s="29"/>
+      <c r="A75" s="27"/>
       <c r="B75" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C75" s="34"/>
-      <c r="D75" s="34"/>
+      <c r="C75" s="29"/>
+      <c r="D75" s="29"/>
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
       <c r="H75" s="7"/>
     </row>
     <row r="76" spans="1:8">
-      <c r="A76" s="29"/>
-      <c r="B76" s="29" t="s">
+      <c r="A76" s="27"/>
+      <c r="B76" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="C76" s="29" t="s">
+      <c r="C76" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="D76" s="29" t="s">
+      <c r="D76" s="27" t="s">
         <v>73</v>
       </c>
       <c r="E76" s="4" t="s">
@@ -5158,10 +5177,10 @@
       <c r="H76" s="7"/>
     </row>
     <row r="77" spans="1:8">
-      <c r="A77" s="29"/>
-      <c r="B77" s="29"/>
-      <c r="C77" s="29"/>
-      <c r="D77" s="29"/>
+      <c r="A77" s="27"/>
+      <c r="B77" s="27"/>
+      <c r="C77" s="27"/>
+      <c r="D77" s="27"/>
       <c r="E77" s="4" t="s">
         <v>217</v>
       </c>
@@ -5174,9 +5193,9 @@
       <c r="H77" s="7"/>
     </row>
     <row r="78" spans="1:8">
-      <c r="A78" s="29"/>
-      <c r="B78" s="29"/>
-      <c r="C78" s="29"/>
+      <c r="A78" s="27"/>
+      <c r="B78" s="27"/>
+      <c r="C78" s="27"/>
       <c r="D78" s="3" t="s">
         <v>74</v>
       </c>
@@ -5186,9 +5205,9 @@
       <c r="H78" s="7"/>
     </row>
     <row r="79" spans="1:8">
-      <c r="A79" s="29"/>
-      <c r="B79" s="29"/>
-      <c r="C79" s="29"/>
+      <c r="A79" s="27"/>
+      <c r="B79" s="27"/>
+      <c r="C79" s="27"/>
       <c r="D79" s="3" t="s">
         <v>75</v>
       </c>
@@ -5198,8 +5217,8 @@
       <c r="H79" s="7"/>
     </row>
     <row r="80" spans="1:8" ht="40.5">
-      <c r="A80" s="29"/>
-      <c r="B80" s="29"/>
+      <c r="A80" s="27"/>
+      <c r="B80" s="27"/>
       <c r="C80" s="9" t="s">
         <v>76</v>
       </c>
@@ -5216,10 +5235,10 @@
       <c r="H80" s="7"/>
     </row>
     <row r="81" spans="1:8">
-      <c r="A81" s="29" t="s">
+      <c r="A81" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="B81" s="29" t="s">
+      <c r="B81" s="27" t="s">
         <v>78</v>
       </c>
       <c r="C81" s="28" t="s">
@@ -5238,8 +5257,8 @@
       <c r="H81" s="7"/>
     </row>
     <row r="82" spans="1:8" ht="121.5">
-      <c r="A82" s="29"/>
-      <c r="B82" s="29"/>
+      <c r="A82" s="27"/>
+      <c r="B82" s="27"/>
       <c r="C82" s="28" t="s">
         <v>80</v>
       </c>
@@ -5253,13 +5272,13 @@
       <c r="G82" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="H82" s="16" t="s">
+      <c r="H82" s="37" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="27" customHeight="1">
-      <c r="A83" s="29"/>
-      <c r="B83" s="29" t="s">
+      <c r="A83" s="27"/>
+      <c r="B83" s="27" t="s">
         <v>81</v>
       </c>
       <c r="C83" s="28" t="s">
@@ -5278,8 +5297,8 @@
       <c r="H83" s="7"/>
     </row>
     <row r="84" spans="1:8">
-      <c r="A84" s="29"/>
-      <c r="B84" s="29"/>
+      <c r="A84" s="27"/>
+      <c r="B84" s="27"/>
       <c r="C84" s="28"/>
       <c r="D84" s="28"/>
       <c r="E84" s="4" t="s">
@@ -5294,8 +5313,8 @@
       <c r="H84" s="7"/>
     </row>
     <row r="85" spans="1:8">
-      <c r="A85" s="29"/>
-      <c r="B85" s="29"/>
+      <c r="A85" s="27"/>
+      <c r="B85" s="27"/>
       <c r="C85" s="28" t="s">
         <v>83</v>
       </c>
@@ -5312,8 +5331,8 @@
       <c r="H85" s="7"/>
     </row>
     <row r="86" spans="1:8">
-      <c r="A86" s="29"/>
-      <c r="B86" s="29"/>
+      <c r="A86" s="27"/>
+      <c r="B86" s="27"/>
       <c r="C86" s="28"/>
       <c r="D86" s="28"/>
       <c r="E86" s="4" t="s">
@@ -5324,8 +5343,8 @@
       <c r="H86" s="7"/>
     </row>
     <row r="87" spans="1:8">
-      <c r="A87" s="29"/>
-      <c r="B87" s="29"/>
+      <c r="A87" s="27"/>
+      <c r="B87" s="27"/>
       <c r="C87" s="28"/>
       <c r="D87" s="28"/>
       <c r="E87" s="4" t="s">
@@ -5336,8 +5355,8 @@
       <c r="H87" s="7"/>
     </row>
     <row r="88" spans="1:8">
-      <c r="A88" s="29"/>
-      <c r="B88" s="29"/>
+      <c r="A88" s="27"/>
+      <c r="B88" s="27"/>
       <c r="C88" s="28" t="s">
         <v>84</v>
       </c>
@@ -5354,11 +5373,11 @@
       <c r="H88" s="7"/>
     </row>
     <row r="89" spans="1:8">
-      <c r="A89" s="29"/>
-      <c r="B89" s="29"/>
+      <c r="A89" s="27"/>
+      <c r="B89" s="27"/>
       <c r="C89" s="28"/>
       <c r="D89" s="28"/>
-      <c r="E89" s="4" t="s">
+      <c r="E89" s="38" t="s">
         <v>177</v>
       </c>
       <c r="F89" s="2" t="s">
@@ -5370,8 +5389,8 @@
       <c r="H89" s="7"/>
     </row>
     <row r="90" spans="1:8">
-      <c r="A90" s="29"/>
-      <c r="B90" s="29"/>
+      <c r="A90" s="27"/>
+      <c r="B90" s="27"/>
       <c r="C90" s="2" t="s">
         <v>85</v>
       </c>
@@ -5388,16 +5407,16 @@
       <c r="H90" s="7"/>
     </row>
     <row r="91" spans="1:8">
-      <c r="A91" s="29" t="s">
+      <c r="A91" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="B91" s="29" t="s">
+      <c r="B91" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="C91" s="29" t="s">
+      <c r="C91" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="D91" s="29" t="s">
+      <c r="D91" s="27" t="s">
         <v>89</v>
       </c>
       <c r="E91" s="4" t="s">
@@ -5412,10 +5431,10 @@
       <c r="H91" s="7"/>
     </row>
     <row r="92" spans="1:8">
-      <c r="A92" s="29"/>
-      <c r="B92" s="29"/>
-      <c r="C92" s="29"/>
-      <c r="D92" s="29"/>
+      <c r="A92" s="27"/>
+      <c r="B92" s="27"/>
+      <c r="C92" s="27"/>
+      <c r="D92" s="27"/>
       <c r="E92" s="4" t="s">
         <v>242</v>
       </c>
@@ -5428,10 +5447,10 @@
       <c r="H92" s="7"/>
     </row>
     <row r="93" spans="1:8">
-      <c r="A93" s="29"/>
-      <c r="B93" s="29"/>
-      <c r="C93" s="29"/>
-      <c r="D93" s="29" t="s">
+      <c r="A93" s="27"/>
+      <c r="B93" s="27"/>
+      <c r="C93" s="27"/>
+      <c r="D93" s="27" t="s">
         <v>90</v>
       </c>
       <c r="E93" s="4" t="s">
@@ -5446,11 +5465,11 @@
       <c r="H93" s="7"/>
     </row>
     <row r="94" spans="1:8">
-      <c r="A94" s="29"/>
-      <c r="B94" s="29"/>
-      <c r="C94" s="29"/>
-      <c r="D94" s="29"/>
-      <c r="E94" s="23" t="s">
+      <c r="A94" s="27"/>
+      <c r="B94" s="27"/>
+      <c r="C94" s="27"/>
+      <c r="D94" s="27"/>
+      <c r="E94" s="22" t="s">
         <v>247</v>
       </c>
       <c r="F94" s="2" t="s">
@@ -5462,10 +5481,10 @@
       <c r="H94" s="7"/>
     </row>
     <row r="95" spans="1:8">
-      <c r="A95" s="29"/>
-      <c r="B95" s="29"/>
-      <c r="C95" s="29"/>
-      <c r="D95" s="29"/>
+      <c r="A95" s="27"/>
+      <c r="B95" s="27"/>
+      <c r="C95" s="27"/>
+      <c r="D95" s="27"/>
       <c r="E95" s="4" t="s">
         <v>248</v>
       </c>
@@ -5478,10 +5497,10 @@
       <c r="H95" s="7"/>
     </row>
     <row r="96" spans="1:8">
-      <c r="A96" s="29"/>
-      <c r="B96" s="29"/>
-      <c r="C96" s="29"/>
-      <c r="D96" s="29" t="s">
+      <c r="A96" s="27"/>
+      <c r="B96" s="27"/>
+      <c r="C96" s="27"/>
+      <c r="D96" s="27" t="s">
         <v>91</v>
       </c>
       <c r="E96" s="4" t="s">
@@ -5492,10 +5511,10 @@
       <c r="H96" s="7"/>
     </row>
     <row r="97" spans="1:8">
-      <c r="A97" s="29"/>
-      <c r="B97" s="29"/>
-      <c r="C97" s="29"/>
-      <c r="D97" s="29"/>
+      <c r="A97" s="27"/>
+      <c r="B97" s="27"/>
+      <c r="C97" s="27"/>
+      <c r="D97" s="27"/>
       <c r="E97" s="4" t="s">
         <v>251</v>
       </c>
@@ -5508,10 +5527,10 @@
       <c r="H97" s="7"/>
     </row>
     <row r="98" spans="1:8">
-      <c r="A98" s="29"/>
-      <c r="B98" s="29"/>
-      <c r="C98" s="29"/>
-      <c r="D98" s="29"/>
+      <c r="A98" s="27"/>
+      <c r="B98" s="27"/>
+      <c r="C98" s="27"/>
+      <c r="D98" s="27"/>
       <c r="E98" s="4" t="s">
         <v>252</v>
       </c>
@@ -5524,11 +5543,11 @@
       <c r="H98" s="7"/>
     </row>
     <row r="99" spans="1:8">
-      <c r="A99" s="29"/>
-      <c r="B99" s="29"/>
-      <c r="C99" s="29"/>
-      <c r="D99" s="29"/>
-      <c r="E99" s="23" t="s">
+      <c r="A99" s="27"/>
+      <c r="B99" s="27"/>
+      <c r="C99" s="27"/>
+      <c r="D99" s="27"/>
+      <c r="E99" s="22" t="s">
         <v>255</v>
       </c>
       <c r="F99" s="2" t="s">
@@ -5540,9 +5559,9 @@
       <c r="H99" s="7"/>
     </row>
     <row r="100" spans="1:8">
-      <c r="A100" s="29"/>
-      <c r="B100" s="29"/>
-      <c r="C100" s="29"/>
+      <c r="A100" s="27"/>
+      <c r="B100" s="27"/>
+      <c r="C100" s="27"/>
       <c r="D100" s="3" t="s">
         <v>92</v>
       </c>
@@ -5558,9 +5577,9 @@
       <c r="H100" s="7"/>
     </row>
     <row r="101" spans="1:8" ht="27">
-      <c r="A101" s="29"/>
-      <c r="B101" s="29"/>
-      <c r="C101" s="29"/>
+      <c r="A101" s="27"/>
+      <c r="B101" s="27"/>
+      <c r="C101" s="27"/>
       <c r="D101" s="3" t="s">
         <v>93</v>
       </c>
@@ -5570,12 +5589,12 @@
       <c r="H101" s="7"/>
     </row>
     <row r="102" spans="1:8">
-      <c r="A102" s="29"/>
-      <c r="B102" s="29"/>
-      <c r="C102" s="29" t="s">
+      <c r="A102" s="27"/>
+      <c r="B102" s="27"/>
+      <c r="C102" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="D102" s="29" t="s">
+      <c r="D102" s="27" t="s">
         <v>95</v>
       </c>
       <c r="E102" s="4" t="s">
@@ -5590,10 +5609,10 @@
       <c r="H102" s="7"/>
     </row>
     <row r="103" spans="1:8">
-      <c r="A103" s="29"/>
-      <c r="B103" s="29"/>
-      <c r="C103" s="29"/>
-      <c r="D103" s="29"/>
+      <c r="A103" s="27"/>
+      <c r="B103" s="27"/>
+      <c r="C103" s="27"/>
+      <c r="D103" s="27"/>
       <c r="E103" s="4" t="s">
         <v>262</v>
       </c>
@@ -5606,13 +5625,13 @@
       <c r="H103" s="7"/>
     </row>
     <row r="104" spans="1:8">
-      <c r="A104" s="29"/>
-      <c r="B104" s="29"/>
-      <c r="C104" s="29"/>
-      <c r="D104" s="29" t="s">
+      <c r="A104" s="27"/>
+      <c r="B104" s="27"/>
+      <c r="C104" s="27"/>
+      <c r="D104" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="E104" s="23" t="s">
+      <c r="E104" s="22" t="s">
         <v>263</v>
       </c>
       <c r="F104" s="2" t="s">
@@ -5624,10 +5643,10 @@
       <c r="H104" s="7"/>
     </row>
     <row r="105" spans="1:8">
-      <c r="A105" s="29"/>
-      <c r="B105" s="29"/>
-      <c r="C105" s="29"/>
-      <c r="D105" s="29"/>
+      <c r="A105" s="27"/>
+      <c r="B105" s="27"/>
+      <c r="C105" s="27"/>
+      <c r="D105" s="27"/>
       <c r="E105" s="4" t="s">
         <v>264</v>
       </c>
@@ -5640,12 +5659,12 @@
       <c r="H105" s="7"/>
     </row>
     <row r="106" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A106" s="29"/>
-      <c r="B106" s="29" t="s">
+      <c r="A106" s="27"/>
+      <c r="B106" s="27" t="s">
         <v>97</v>
       </c>
       <c r="C106" s="28"/>
-      <c r="D106" s="29" t="s">
+      <c r="D106" s="27" t="s">
         <v>98</v>
       </c>
       <c r="E106" s="4" t="s">
@@ -5660,10 +5679,10 @@
       <c r="H106" s="7"/>
     </row>
     <row r="107" spans="1:8">
-      <c r="A107" s="29"/>
-      <c r="B107" s="29"/>
+      <c r="A107" s="27"/>
+      <c r="B107" s="27"/>
       <c r="C107" s="28"/>
-      <c r="D107" s="29"/>
+      <c r="D107" s="27"/>
       <c r="E107" s="4" t="s">
         <v>270</v>
       </c>
@@ -5676,10 +5695,10 @@
       <c r="H107" s="7"/>
     </row>
     <row r="108" spans="1:8">
-      <c r="A108" s="29"/>
-      <c r="B108" s="29"/>
+      <c r="A108" s="27"/>
+      <c r="B108" s="27"/>
       <c r="C108" s="28"/>
-      <c r="D108" s="29"/>
+      <c r="D108" s="27"/>
       <c r="E108" s="4" t="s">
         <v>273</v>
       </c>
@@ -5692,10 +5711,10 @@
       <c r="H108" s="7"/>
     </row>
     <row r="109" spans="1:8">
-      <c r="A109" s="29"/>
-      <c r="B109" s="29"/>
+      <c r="A109" s="27"/>
+      <c r="B109" s="27"/>
       <c r="C109" s="28"/>
-      <c r="D109" s="29"/>
+      <c r="D109" s="27"/>
       <c r="E109" s="4" t="s">
         <v>275</v>
       </c>
@@ -5708,8 +5727,8 @@
       <c r="H109" s="7"/>
     </row>
     <row r="110" spans="1:8" ht="27">
-      <c r="A110" s="29"/>
-      <c r="B110" s="29"/>
+      <c r="A110" s="27"/>
+      <c r="B110" s="27"/>
       <c r="C110" s="28"/>
       <c r="D110" s="3" t="s">
         <v>99</v>
@@ -5720,10 +5739,10 @@
       <c r="H110" s="7"/>
     </row>
     <row r="111" spans="1:8">
-      <c r="A111" s="29" t="s">
+      <c r="A111" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="B111" s="29" t="s">
+      <c r="B111" s="27" t="s">
         <v>101</v>
       </c>
       <c r="C111" s="28" t="s">
@@ -5736,8 +5755,8 @@
       <c r="H111" s="7"/>
     </row>
     <row r="112" spans="1:8">
-      <c r="A112" s="29"/>
-      <c r="B112" s="29"/>
+      <c r="A112" s="27"/>
+      <c r="B112" s="27"/>
       <c r="C112" s="28" t="s">
         <v>103</v>
       </c>
@@ -5752,12 +5771,12 @@
       <c r="H112" s="7"/>
     </row>
     <row r="113" spans="1:8">
-      <c r="A113" s="29"/>
-      <c r="B113" s="29" t="s">
+      <c r="A113" s="27"/>
+      <c r="B113" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="C113" s="34"/>
-      <c r="D113" s="34"/>
+      <c r="C113" s="29"/>
+      <c r="D113" s="29"/>
       <c r="E113" s="4" t="s">
         <v>278</v>
       </c>
@@ -5770,10 +5789,10 @@
       <c r="H113" s="7"/>
     </row>
     <row r="114" spans="1:8">
-      <c r="A114" s="29"/>
-      <c r="B114" s="29"/>
-      <c r="C114" s="34"/>
-      <c r="D114" s="34"/>
+      <c r="A114" s="27"/>
+      <c r="B114" s="27"/>
+      <c r="C114" s="29"/>
+      <c r="D114" s="29"/>
       <c r="E114" s="4" t="s">
         <v>280</v>
       </c>
@@ -5784,10 +5803,10 @@
       <c r="H114" s="7"/>
     </row>
     <row r="115" spans="1:8">
-      <c r="A115" s="29"/>
-      <c r="B115" s="29"/>
-      <c r="C115" s="34"/>
-      <c r="D115" s="34"/>
+      <c r="A115" s="27"/>
+      <c r="B115" s="27"/>
+      <c r="C115" s="29"/>
+      <c r="D115" s="29"/>
       <c r="E115" s="4" t="s">
         <v>281</v>
       </c>
@@ -5800,8 +5819,8 @@
       <c r="H115" s="7"/>
     </row>
     <row r="116" spans="1:8">
-      <c r="A116" s="29"/>
-      <c r="B116" s="29"/>
+      <c r="A116" s="27"/>
+      <c r="B116" s="27"/>
       <c r="C116" s="28" t="s">
         <v>105</v>
       </c>
@@ -5820,8 +5839,8 @@
       </c>
     </row>
     <row r="117" spans="1:8">
-      <c r="A117" s="29"/>
-      <c r="B117" s="29"/>
+      <c r="A117" s="27"/>
+      <c r="B117" s="27"/>
       <c r="C117" s="28"/>
       <c r="D117" s="28"/>
       <c r="E117" s="4" t="s">
@@ -5838,8 +5857,8 @@
       </c>
     </row>
     <row r="118" spans="1:8">
-      <c r="A118" s="29"/>
-      <c r="B118" s="29"/>
+      <c r="A118" s="27"/>
+      <c r="B118" s="27"/>
       <c r="C118" s="28"/>
       <c r="D118" s="28"/>
       <c r="E118" s="4" t="s">
@@ -5856,8 +5875,8 @@
       </c>
     </row>
     <row r="119" spans="1:8">
-      <c r="A119" s="29"/>
-      <c r="B119" s="29"/>
+      <c r="A119" s="27"/>
+      <c r="B119" s="27"/>
       <c r="C119" s="28"/>
       <c r="D119" s="28"/>
       <c r="E119" s="4" t="s">
@@ -5874,8 +5893,8 @@
       </c>
     </row>
     <row r="120" spans="1:8">
-      <c r="A120" s="29"/>
-      <c r="B120" s="29"/>
+      <c r="A120" s="27"/>
+      <c r="B120" s="27"/>
       <c r="C120" s="28" t="s">
         <v>106</v>
       </c>
@@ -5892,11 +5911,11 @@
       <c r="H120" s="7"/>
     </row>
     <row r="121" spans="1:8">
-      <c r="A121" s="29"/>
-      <c r="B121" s="29"/>
+      <c r="A121" s="27"/>
+      <c r="B121" s="27"/>
       <c r="C121" s="28"/>
       <c r="D121" s="28"/>
-      <c r="E121" s="23" t="s">
+      <c r="E121" s="22" t="s">
         <v>286</v>
       </c>
       <c r="F121" s="2"/>
@@ -5904,8 +5923,8 @@
       <c r="H121" s="7"/>
     </row>
     <row r="122" spans="1:8">
-      <c r="A122" s="29"/>
-      <c r="B122" s="29"/>
+      <c r="A122" s="27"/>
+      <c r="B122" s="27"/>
       <c r="C122" s="28"/>
       <c r="D122" s="28"/>
       <c r="E122" s="4" t="s">
@@ -5916,7 +5935,7 @@
       <c r="H122" s="7"/>
     </row>
     <row r="123" spans="1:8">
-      <c r="A123" s="29"/>
+      <c r="A123" s="27"/>
       <c r="B123" s="2" t="s">
         <v>107</v>
       </c>
@@ -5935,63 +5954,6 @@
     </row>
   </sheetData>
   <mergeCells count="73">
-    <mergeCell ref="A2:A55"/>
-    <mergeCell ref="A56:A71"/>
-    <mergeCell ref="A72:A80"/>
-    <mergeCell ref="A81:A90"/>
-    <mergeCell ref="A91:A110"/>
-    <mergeCell ref="A111:A123"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="C111:D111"/>
-    <mergeCell ref="C112:D112"/>
-    <mergeCell ref="B113:B122"/>
-    <mergeCell ref="C113:D115"/>
-    <mergeCell ref="C116:D119"/>
-    <mergeCell ref="C120:D122"/>
-    <mergeCell ref="B83:B90"/>
-    <mergeCell ref="C91:C101"/>
-    <mergeCell ref="C102:C105"/>
-    <mergeCell ref="B91:B105"/>
-    <mergeCell ref="B106:B110"/>
-    <mergeCell ref="C106:C110"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="B56:B59"/>
-    <mergeCell ref="E56:E59"/>
-    <mergeCell ref="F56:F59"/>
-    <mergeCell ref="B60:B64"/>
-    <mergeCell ref="C65:D67"/>
-    <mergeCell ref="B65:B71"/>
-    <mergeCell ref="B72:B74"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="C76:C79"/>
-    <mergeCell ref="B76:B80"/>
-    <mergeCell ref="C61:D63"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="B44:B55"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="C6:C20"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="C25:C31"/>
-    <mergeCell ref="B2:B31"/>
-    <mergeCell ref="C32:C36"/>
-    <mergeCell ref="C37:C40"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="B32:B43"/>
-    <mergeCell ref="C51:C55"/>
-    <mergeCell ref="D106:D109"/>
-    <mergeCell ref="C70:D71"/>
-    <mergeCell ref="C72:D73"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="C83:D84"/>
-    <mergeCell ref="C85:D87"/>
-    <mergeCell ref="C88:D89"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="D91:D92"/>
-    <mergeCell ref="D93:D95"/>
-    <mergeCell ref="D96:D99"/>
-    <mergeCell ref="D102:D103"/>
-    <mergeCell ref="D104:D105"/>
-    <mergeCell ref="C81:D81"/>
     <mergeCell ref="H56:H59"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="D8:D10"/>
@@ -6008,6 +5970,63 @@
     <mergeCell ref="C58:D58"/>
     <mergeCell ref="C59:D59"/>
     <mergeCell ref="C44:C50"/>
+    <mergeCell ref="D106:D109"/>
+    <mergeCell ref="C70:D71"/>
+    <mergeCell ref="C72:D73"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="C83:D84"/>
+    <mergeCell ref="C85:D87"/>
+    <mergeCell ref="C88:D89"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="D93:D95"/>
+    <mergeCell ref="D96:D99"/>
+    <mergeCell ref="D102:D103"/>
+    <mergeCell ref="D104:D105"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="B44:B55"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="C6:C20"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="C25:C31"/>
+    <mergeCell ref="B2:B31"/>
+    <mergeCell ref="C32:C36"/>
+    <mergeCell ref="C37:C40"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="B32:B43"/>
+    <mergeCell ref="C51:C55"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="B56:B59"/>
+    <mergeCell ref="E56:E59"/>
+    <mergeCell ref="F56:F59"/>
+    <mergeCell ref="B60:B64"/>
+    <mergeCell ref="C65:D67"/>
+    <mergeCell ref="B65:B71"/>
+    <mergeCell ref="B72:B74"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="C76:C79"/>
+    <mergeCell ref="B76:B80"/>
+    <mergeCell ref="C61:D63"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="B83:B90"/>
+    <mergeCell ref="C91:C101"/>
+    <mergeCell ref="C102:C105"/>
+    <mergeCell ref="B91:B105"/>
+    <mergeCell ref="B106:B110"/>
+    <mergeCell ref="C106:C110"/>
+    <mergeCell ref="A111:A123"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="C111:D111"/>
+    <mergeCell ref="C112:D112"/>
+    <mergeCell ref="B113:B122"/>
+    <mergeCell ref="C113:D115"/>
+    <mergeCell ref="C116:D119"/>
+    <mergeCell ref="C120:D122"/>
+    <mergeCell ref="A2:A55"/>
+    <mergeCell ref="A56:A71"/>
+    <mergeCell ref="A72:A80"/>
+    <mergeCell ref="A81:A90"/>
+    <mergeCell ref="A91:A110"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6041,232 +6060,232 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="34" t="s">
         <v>331</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="34" t="s">
         <v>332</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="16" t="s">
         <v>359</v>
       </c>
-      <c r="E2" s="19">
+      <c r="E2" s="18">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="36"/>
-      <c r="B3" s="36"/>
+      <c r="A3" s="35"/>
+      <c r="B3" s="35"/>
       <c r="C3" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="16" t="s">
         <v>362</v>
       </c>
-      <c r="E3" s="20">
+      <c r="E3" s="19">
         <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="36"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="17" t="s">
+      <c r="A4" s="35"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="16" t="s">
         <v>363</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="E4" s="20">
+      <c r="E4" s="19">
         <v>42.7</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="36"/>
-      <c r="B5" s="35" t="s">
+      <c r="A5" s="35"/>
+      <c r="B5" s="34" t="s">
         <v>333</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="16" t="s">
         <v>365</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="19">
         <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="36"/>
-      <c r="B6" s="37"/>
+      <c r="A6" s="35"/>
+      <c r="B6" s="36"/>
       <c r="C6" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="16" t="s">
         <v>367</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="19">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="36"/>
-      <c r="B7" s="35" t="s">
+      <c r="A7" s="35"/>
+      <c r="B7" s="34" t="s">
         <v>334</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="16" t="s">
         <v>369</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="19">
         <v>13.4</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="36"/>
-      <c r="B8" s="36"/>
+      <c r="A8" s="35"/>
+      <c r="B8" s="35"/>
       <c r="C8" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="16" t="s">
         <v>371</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="19">
         <v>19.7</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="36"/>
-      <c r="B9" s="37"/>
+      <c r="A9" s="35"/>
+      <c r="B9" s="36"/>
       <c r="C9" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="16" t="s">
         <v>373</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9" s="19">
         <v>6.6</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="36"/>
-      <c r="B10" s="18" t="s">
+      <c r="A10" s="35"/>
+      <c r="B10" s="17" t="s">
         <v>335</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="16" t="s">
         <v>375</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E10" s="19">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="36"/>
-      <c r="B11" s="35" t="s">
+      <c r="A11" s="35"/>
+      <c r="B11" s="34" t="s">
         <v>336</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="16" t="s">
         <v>377</v>
       </c>
-      <c r="E11" s="20">
+      <c r="E11" s="19">
         <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="36"/>
-      <c r="B12" s="37"/>
+      <c r="A12" s="35"/>
+      <c r="B12" s="36"/>
       <c r="C12" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="16" t="s">
         <v>379</v>
       </c>
-      <c r="E12" s="20">
+      <c r="E12" s="19">
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="36"/>
-      <c r="B13" s="35" t="s">
+      <c r="A13" s="35"/>
+      <c r="B13" s="34" t="s">
         <v>337</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="16" t="s">
         <v>381</v>
       </c>
-      <c r="E13" s="20">
+      <c r="E13" s="19">
         <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="36"/>
-      <c r="B14" s="36"/>
+      <c r="A14" s="35"/>
+      <c r="B14" s="35"/>
       <c r="C14" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="16" t="s">
         <v>383</v>
       </c>
-      <c r="E14" s="20">
+      <c r="E14" s="19">
         <v>3.9</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="36"/>
-      <c r="B15" s="36"/>
+      <c r="A15" s="35"/>
+      <c r="B15" s="35"/>
       <c r="C15" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="16" t="s">
         <v>385</v>
       </c>
-      <c r="E15" s="20">
+      <c r="E15" s="19">
         <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="36"/>
-      <c r="B16" s="36"/>
+      <c r="A16" s="35"/>
+      <c r="B16" s="35"/>
       <c r="C16" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="16" t="s">
         <v>387</v>
       </c>
-      <c r="E16" s="20">
+      <c r="E16" s="19">
         <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="37"/>
-      <c r="B17" s="37"/>
+      <c r="A17" s="36"/>
+      <c r="B17" s="36"/>
       <c r="C17" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="16" t="s">
         <v>389</v>
       </c>
-      <c r="E17" s="20">
+      <c r="E17" s="19">
         <v>27.1</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="35" t="s">
+      <c r="A18" s="34" t="s">
         <v>338</v>
       </c>
-      <c r="B18" s="35" t="s">
+      <c r="B18" s="34" t="s">
         <v>339</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -6275,54 +6294,54 @@
       <c r="D18" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="E18" s="20">
+      <c r="E18" s="19">
         <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="36"/>
-      <c r="B19" s="36"/>
+      <c r="A19" s="35"/>
+      <c r="B19" s="35"/>
       <c r="C19" s="2" t="s">
         <v>393</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="E19" s="20">
+      <c r="E19" s="19">
         <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="36"/>
-      <c r="B20" s="36"/>
+      <c r="A20" s="35"/>
+      <c r="B20" s="35"/>
       <c r="C20" s="2" t="s">
         <v>395</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="E20" s="20">
+      <c r="E20" s="19">
         <v>6.5</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="37"/>
-      <c r="B21" s="37"/>
+      <c r="A21" s="36"/>
+      <c r="B21" s="36"/>
       <c r="C21" s="2" t="s">
         <v>397</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="E21" s="20">
+      <c r="E21" s="19">
         <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="35" t="s">
+      <c r="A22" s="34" t="s">
         <v>340</v>
       </c>
-      <c r="B22" s="35" t="s">
+      <c r="B22" s="34" t="s">
         <v>341</v>
       </c>
       <c r="C22" s="2" t="s">
@@ -6331,39 +6350,39 @@
       <c r="D22" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="E22" s="20">
+      <c r="E22" s="19">
         <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="36"/>
-      <c r="B23" s="36"/>
+      <c r="A23" s="35"/>
+      <c r="B23" s="35"/>
       <c r="C23" s="2" t="s">
         <v>401</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="E23" s="20">
+      <c r="E23" s="19">
         <v>4.5</v>
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="36"/>
-      <c r="B24" s="37"/>
+      <c r="A24" s="35"/>
+      <c r="B24" s="36"/>
       <c r="C24" s="2" t="s">
         <v>403</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="E24" s="20">
+      <c r="E24" s="19">
         <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="36"/>
-      <c r="B25" s="35" t="s">
+      <c r="A25" s="35"/>
+      <c r="B25" s="34" t="s">
         <v>342</v>
       </c>
       <c r="C25" s="2" t="s">
@@ -6372,28 +6391,28 @@
       <c r="D25" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="E25" s="20">
+      <c r="E25" s="19">
         <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="37"/>
-      <c r="B26" s="37"/>
+      <c r="A26" s="36"/>
+      <c r="B26" s="36"/>
       <c r="C26" s="2" t="s">
         <v>407</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="E26" s="20">
+      <c r="E26" s="19">
         <v>3.7</v>
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="35" t="s">
+      <c r="A27" s="34" t="s">
         <v>343</v>
       </c>
-      <c r="B27" s="35" t="s">
+      <c r="B27" s="34" t="s">
         <v>344</v>
       </c>
       <c r="C27" s="2" t="s">
@@ -6402,39 +6421,39 @@
       <c r="D27" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="E27" s="20">
+      <c r="E27" s="19">
         <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="36"/>
-      <c r="B28" s="36"/>
+      <c r="A28" s="35"/>
+      <c r="B28" s="35"/>
       <c r="C28" s="2" t="s">
         <v>409</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="E28" s="20">
+      <c r="E28" s="19">
         <v>115</v>
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="36"/>
-      <c r="B29" s="37"/>
+      <c r="A29" s="35"/>
+      <c r="B29" s="36"/>
       <c r="C29" s="2" t="s">
         <v>411</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="E29" s="20">
+      <c r="E29" s="19">
         <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="36"/>
-      <c r="B30" s="35" t="s">
+      <c r="A30" s="35"/>
+      <c r="B30" s="34" t="s">
         <v>345</v>
       </c>
       <c r="C30" s="2" t="s">
@@ -6443,63 +6462,63 @@
       <c r="D30" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="E30" s="20"/>
+      <c r="E30" s="19"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="36"/>
-      <c r="B31" s="36"/>
+      <c r="A31" s="35"/>
+      <c r="B31" s="35"/>
       <c r="C31" s="2" t="s">
         <v>415</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="E31" s="20">
+      <c r="E31" s="19">
         <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="36"/>
-      <c r="B32" s="36"/>
+      <c r="A32" s="35"/>
+      <c r="B32" s="35"/>
       <c r="C32" s="2" t="s">
         <v>417</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="E32" s="20">
+      <c r="E32" s="19">
         <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="36"/>
-      <c r="B33" s="36"/>
+      <c r="A33" s="35"/>
+      <c r="B33" s="35"/>
       <c r="C33" s="2" t="s">
         <v>419</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="E33" s="20">
+      <c r="E33" s="19">
         <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="36"/>
-      <c r="B34" s="37"/>
+      <c r="A34" s="35"/>
+      <c r="B34" s="36"/>
       <c r="C34" s="2" t="s">
         <v>421</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="E34" s="20">
+      <c r="E34" s="19">
         <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="37"/>
-      <c r="B35" s="18" t="s">
+      <c r="A35" s="36"/>
+      <c r="B35" s="17" t="s">
         <v>346</v>
       </c>
       <c r="C35" s="2" t="s">
@@ -6508,15 +6527,15 @@
       <c r="D35" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="E35" s="20">
+      <c r="E35" s="19">
         <v>16.600000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="35" t="s">
+      <c r="A36" s="34" t="s">
         <v>347</v>
       </c>
-      <c r="B36" s="35" t="s">
+      <c r="B36" s="34" t="s">
         <v>348</v>
       </c>
       <c r="C36" s="2" t="s">
@@ -6525,117 +6544,117 @@
       <c r="D36" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="E36" s="20">
+      <c r="E36" s="19">
         <v>22</v>
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="36"/>
-      <c r="B37" s="36"/>
+      <c r="A37" s="35"/>
+      <c r="B37" s="35"/>
       <c r="C37" s="2" t="s">
         <v>427</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="E37" s="20">
+      <c r="E37" s="19">
         <v>7.5</v>
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="36"/>
-      <c r="B38" s="36"/>
+      <c r="A38" s="35"/>
+      <c r="B38" s="35"/>
       <c r="C38" s="2" t="s">
         <v>429</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="E38" s="20">
+      <c r="E38" s="19">
         <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="36"/>
-      <c r="B39" s="36"/>
+      <c r="A39" s="35"/>
+      <c r="B39" s="35"/>
       <c r="C39" s="2" t="s">
         <v>431</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="E39" s="20">
+      <c r="E39" s="19">
         <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="36"/>
-      <c r="B40" s="36"/>
+      <c r="A40" s="35"/>
+      <c r="B40" s="35"/>
       <c r="C40" s="2" t="s">
         <v>433</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="E40" s="20">
+      <c r="E40" s="19">
         <v>24</v>
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="36"/>
-      <c r="B41" s="36"/>
+      <c r="A41" s="35"/>
+      <c r="B41" s="35"/>
       <c r="C41" s="2" t="s">
         <v>435</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="E41" s="20">
+      <c r="E41" s="19">
         <v>26.2</v>
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="36"/>
-      <c r="B42" s="36"/>
+      <c r="A42" s="35"/>
+      <c r="B42" s="35"/>
       <c r="C42" s="2" t="s">
         <v>437</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="E42" s="20">
+      <c r="E42" s="19">
         <v>37</v>
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="36"/>
-      <c r="B43" s="36"/>
+      <c r="A43" s="35"/>
+      <c r="B43" s="35"/>
       <c r="C43" s="2" t="s">
         <v>439</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="E43" s="20">
+      <c r="E43" s="19">
         <v>40</v>
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="36"/>
-      <c r="B44" s="37"/>
+      <c r="A44" s="35"/>
+      <c r="B44" s="36"/>
       <c r="C44" s="2" t="s">
         <v>441</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="E44" s="20">
+      <c r="E44" s="19">
         <v>23.4</v>
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="36"/>
-      <c r="B45" s="35" t="s">
+      <c r="A45" s="35"/>
+      <c r="B45" s="34" t="s">
         <v>349</v>
       </c>
       <c r="C45" s="2" t="s">
@@ -6644,54 +6663,54 @@
       <c r="D45" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="E45" s="20">
+      <c r="E45" s="19">
         <v>2.5</v>
       </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="36"/>
-      <c r="B46" s="36"/>
+      <c r="A46" s="35"/>
+      <c r="B46" s="35"/>
       <c r="C46" s="2" t="s">
         <v>445</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="E46" s="20">
+      <c r="E46" s="19">
         <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="36"/>
-      <c r="B47" s="36"/>
+      <c r="A47" s="35"/>
+      <c r="B47" s="35"/>
       <c r="C47" s="2" t="s">
         <v>447</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="E47" s="20">
+      <c r="E47" s="19">
         <v>20</v>
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="37"/>
-      <c r="B48" s="37"/>
+      <c r="A48" s="36"/>
+      <c r="B48" s="36"/>
       <c r="C48" s="2" t="s">
         <v>449</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="E48" s="20">
+      <c r="E48" s="19">
         <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="35" t="s">
+      <c r="A49" s="34" t="s">
         <v>350</v>
       </c>
-      <c r="B49" s="35" t="s">
+      <c r="B49" s="34" t="s">
         <v>351</v>
       </c>
       <c r="C49" s="2" t="s">
@@ -6700,93 +6719,93 @@
       <c r="D49" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="E49" s="20">
+      <c r="E49" s="19">
         <v>2.5</v>
       </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="36"/>
-      <c r="B50" s="36"/>
+      <c r="A50" s="35"/>
+      <c r="B50" s="35"/>
       <c r="C50" s="2" t="s">
         <v>451</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="E50" s="20">
+      <c r="E50" s="19">
         <v>10.5</v>
       </c>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="36"/>
-      <c r="B51" s="36"/>
+      <c r="A51" s="35"/>
+      <c r="B51" s="35"/>
       <c r="C51" s="2" t="s">
         <v>453</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="E51" s="20">
+      <c r="E51" s="19">
         <v>37.200000000000003</v>
       </c>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="36"/>
-      <c r="B52" s="36"/>
+      <c r="A52" s="35"/>
+      <c r="B52" s="35"/>
       <c r="C52" s="2" t="s">
         <v>455</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="E52" s="20">
+      <c r="E52" s="19">
         <v>26</v>
       </c>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="36"/>
-      <c r="B53" s="36"/>
+      <c r="A53" s="35"/>
+      <c r="B53" s="35"/>
       <c r="C53" s="2" t="s">
         <v>457</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="E53" s="20">
+      <c r="E53" s="19">
         <v>24</v>
       </c>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="36"/>
-      <c r="B54" s="36"/>
+      <c r="A54" s="35"/>
+      <c r="B54" s="35"/>
       <c r="C54" s="2" t="s">
         <v>459</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="E54" s="20">
+      <c r="E54" s="19">
         <v>21</v>
       </c>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="37"/>
-      <c r="B55" s="37"/>
+      <c r="A55" s="36"/>
+      <c r="B55" s="36"/>
       <c r="C55" s="2" t="s">
         <v>461</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="E55" s="20">
+      <c r="E55" s="19">
         <v>2.8</v>
       </c>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="35" t="s">
+      <c r="A56" s="34" t="s">
         <v>352</v>
       </c>
-      <c r="B56" s="35" t="s">
+      <c r="B56" s="34" t="s">
         <v>353</v>
       </c>
       <c r="C56" s="2" t="s">
@@ -6795,78 +6814,78 @@
       <c r="D56" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="E56" s="20">
+      <c r="E56" s="19">
         <v>15</v>
       </c>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="36"/>
-      <c r="B57" s="36"/>
+      <c r="A57" s="35"/>
+      <c r="B57" s="35"/>
       <c r="C57" s="2" t="s">
         <v>465</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="E57" s="20">
+      <c r="E57" s="19">
         <v>9.9</v>
       </c>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="36"/>
-      <c r="B58" s="36"/>
+      <c r="A58" s="35"/>
+      <c r="B58" s="35"/>
       <c r="C58" s="2" t="s">
         <v>467</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="E58" s="20">
+      <c r="E58" s="19">
         <v>43.5</v>
       </c>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="36"/>
-      <c r="B59" s="36"/>
+      <c r="A59" s="35"/>
+      <c r="B59" s="35"/>
       <c r="C59" s="2" t="s">
         <v>469</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="E59" s="20">
+      <c r="E59" s="19">
         <v>17.5</v>
       </c>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="36"/>
-      <c r="B60" s="36"/>
+      <c r="A60" s="35"/>
+      <c r="B60" s="35"/>
       <c r="C60" s="2" t="s">
         <v>471</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="E60" s="20">
+      <c r="E60" s="19">
         <v>33</v>
       </c>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="36"/>
-      <c r="B61" s="37"/>
+      <c r="A61" s="35"/>
+      <c r="B61" s="36"/>
       <c r="C61" s="2" t="s">
         <v>473</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="E61" s="20">
+      <c r="E61" s="19">
         <v>33.200000000000003</v>
       </c>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="37"/>
-      <c r="B62" s="18" t="s">
+      <c r="A62" s="36"/>
+      <c r="B62" s="17" t="s">
         <v>345</v>
       </c>
       <c r="C62" s="2" t="s">
@@ -6875,15 +6894,15 @@
       <c r="D62" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="E62" s="20">
+      <c r="E62" s="19">
         <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="35" t="s">
+      <c r="A63" s="34" t="s">
         <v>354</v>
       </c>
-      <c r="B63" s="35" t="s">
+      <c r="B63" s="34" t="s">
         <v>346</v>
       </c>
       <c r="C63" s="2" t="s">
@@ -6892,41 +6911,41 @@
       <c r="D63" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="E63" s="20">
+      <c r="E63" s="19">
         <v>140</v>
       </c>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="36"/>
-      <c r="B64" s="36"/>
+      <c r="A64" s="35"/>
+      <c r="B64" s="35"/>
       <c r="C64" s="2" t="s">
         <v>479</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="E64" s="20">
+      <c r="E64" s="19">
         <v>24</v>
       </c>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="37"/>
-      <c r="B65" s="37"/>
+      <c r="A65" s="36"/>
+      <c r="B65" s="36"/>
       <c r="C65" s="2" t="s">
         <v>481</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="E65" s="20">
+      <c r="E65" s="19">
         <v>4</v>
       </c>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="35" t="s">
+      <c r="A66" s="34" t="s">
         <v>355</v>
       </c>
-      <c r="B66" s="18" t="s">
+      <c r="B66" s="17" t="s">
         <v>356</v>
       </c>
       <c r="C66" s="2" t="s">
@@ -6935,13 +6954,13 @@
       <c r="D66" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="E66" s="20">
+      <c r="E66" s="19">
         <v>18.5</v>
       </c>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="36"/>
-      <c r="B67" s="35" t="s">
+      <c r="A67" s="35"/>
+      <c r="B67" s="34" t="s">
         <v>357</v>
       </c>
       <c r="C67" s="2" t="s">
@@ -6950,26 +6969,26 @@
       <c r="D67" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="E67" s="20">
+      <c r="E67" s="19">
         <v>19</v>
       </c>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="36"/>
-      <c r="B68" s="37"/>
+      <c r="A68" s="35"/>
+      <c r="B68" s="36"/>
       <c r="C68" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="D68" s="21" t="s">
+      <c r="D68" s="20" t="s">
         <v>493</v>
       </c>
-      <c r="E68" s="22">
+      <c r="E68" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="36"/>
-      <c r="B69" s="35" t="s">
+      <c r="A69" s="35"/>
+      <c r="B69" s="34" t="s">
         <v>358</v>
       </c>
       <c r="C69" s="2" t="s">
@@ -6978,37 +6997,25 @@
       <c r="D69" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="E69" s="20">
+      <c r="E69" s="19">
         <v>26</v>
       </c>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="37"/>
-      <c r="B70" s="37"/>
+      <c r="A70" s="36"/>
+      <c r="B70" s="36"/>
       <c r="C70" s="2" t="s">
         <v>490</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="E70" s="20">
+      <c r="E70" s="19">
         <v>28.7</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="B45:B48"/>
-    <mergeCell ref="A49:A55"/>
-    <mergeCell ref="A56:A62"/>
-    <mergeCell ref="A63:A65"/>
-    <mergeCell ref="A66:A70"/>
-    <mergeCell ref="A36:A48"/>
-    <mergeCell ref="B36:B44"/>
-    <mergeCell ref="B49:B55"/>
-    <mergeCell ref="B56:B61"/>
-    <mergeCell ref="B63:B65"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="B69:B70"/>
     <mergeCell ref="B18:B21"/>
     <mergeCell ref="A2:A17"/>
     <mergeCell ref="A18:A21"/>
@@ -7023,6 +7030,18 @@
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B30:B34"/>
+    <mergeCell ref="B45:B48"/>
+    <mergeCell ref="A49:A55"/>
+    <mergeCell ref="A56:A62"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="A66:A70"/>
+    <mergeCell ref="A36:A48"/>
+    <mergeCell ref="B36:B44"/>
+    <mergeCell ref="B49:B55"/>
+    <mergeCell ref="B56:B61"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="B69:B70"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
